--- a/myapp3_url매핑.xlsx
+++ b/myapp3_url매핑.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="208">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
   <x:si>
     <x:t>Member MemberDAO.findById(Long MemberId)</x:t>
   </x:si>
@@ -58,7 +58,10 @@
     <x:t>ApiPubDataDAO.setFacilityData()</x:t>
   </x:si>
   <x:si>
-    <x:t>List&lt;Member&gt; MemberSVC.all()</x:t>
+    <x:t>int AdminSVC.del(Long memberId)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int AdminDAO.del(Long MemberId)</x:t>
   </x:si>
   <x:si>
     <x:t>List&lt;String&gt; AdminSVC.getPosterLink(PEvent pEvent)</x:t>
@@ -476,6 +479,18 @@
     <x:t>SiteStat</x:t>
   </x:si>
   <x:si>
+    <x:t>AdminController.judge()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminController.del()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/members/{id}/del</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminController.all()</x:t>
+  </x:si>
+  <x:si>
     <x:t>PFacility</x:t>
   </x:si>
   <x:si>
@@ -486,6 +501,12 @@
   </x:si>
   <x:si>
     <x:t>Member MemberSVC.findById(Long memberId)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List&lt;Member&gt; AdminSVC.all()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List&lt;Member&gt; AdminDAO.all()</x:t>
   </x:si>
   <x:si>
     <x:t>OpenAPI 공연장 정보</x:t>
@@ -652,9 +673,6 @@
   </x:si>
   <x:si>
     <x:t>DclrForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminController.member()</x:t>
   </x:si>
   <x:si>
     <x:t>AdminDAO.getDclrmember()</x:t>
@@ -1915,11 +1933,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:K41"/>
+  <x:dimension ref="A1:K43"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <x:pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="K30" activeCellId="0" sqref="K30:K30"/>
+      <x:pane xSplit="5" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="E34" activeCellId="0" sqref="E34:E34"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1939,133 +1957,133 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" ht="49.149999999999999">
       <x:c r="A1" s="21" t="s">
-        <x:v>187</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>177</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D1" s="22" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E1" s="22" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F1" s="23" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G1" s="23" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H1" s="24" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I1" s="24" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J1" s="24" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="I1" s="24" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="J1" s="24" t="s">
+      <x:c r="K1" s="24" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="K1" s="24" t="s">
-        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" s="1" customFormat="1">
       <x:c r="A2" s="18" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B2" s="25" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11" s="1" customFormat="1" ht="32.75">
       <x:c r="A3" s="19"/>
       <x:c r="B3" s="25" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F3" s="2"/>
       <x:c r="G3" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" s="1" customFormat="1">
       <x:c r="A4" s="19"/>
       <x:c r="B4" s="25" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" s="1" customFormat="1">
       <x:c r="A5" s="19"/>
       <x:c r="B5" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>1</x:v>
@@ -2074,47 +2092,47 @@
     <x:row r="6" spans="1:11" s="1" customFormat="1" ht="32.75">
       <x:c r="A6" s="19"/>
       <x:c r="B6" s="25" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F6" s="2"/>
       <x:c r="G6" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11" s="1" customFormat="1">
       <x:c r="A7" s="19"/>
       <x:c r="B7" s="25" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
         <x:v>5</x:v>
@@ -2126,22 +2144,22 @@
     <x:row r="8" spans="1:11" s="1" customFormat="1">
       <x:c r="A8" s="20"/>
       <x:c r="B8" s="25" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
         <x:v>7</x:v>
@@ -2149,80 +2167,80 @@
     </x:row>
     <x:row r="9" spans="1:8" s="1" customFormat="1">
       <x:c r="A9" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B9" s="25" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11" s="1" customFormat="1" ht="49.149999999999999">
       <x:c r="A10" s="19"/>
       <x:c r="B10" s="25" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F10" s="2"/>
       <x:c r="G10" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J10" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K10" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11" s="1" customFormat="1">
       <x:c r="A11" s="19"/>
       <x:c r="B11" s="25" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
         <x:v>0</x:v>
@@ -2231,111 +2249,111 @@
     <x:row r="12" spans="1:8" s="1" customFormat="1">
       <x:c r="A12" s="19"/>
       <x:c r="B12" s="25" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11" s="1" customFormat="1" ht="49.149999999999999">
       <x:c r="A13" s="19"/>
       <x:c r="B13" s="25" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F13" s="2"/>
       <x:c r="G13" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J13" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K13" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="1" customFormat="1">
       <x:c r="A14" s="19"/>
       <x:c r="B14" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G14" s="2"/>
     </x:row>
     <x:row r="15" spans="1:11" s="1" customFormat="1">
       <x:c r="A15" s="19"/>
       <x:c r="B15" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="J15" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K15" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:11" s="1" customFormat="1">
       <x:c r="A16" s="20"/>
       <x:c r="B16" s="25" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
-        <x:v>171</x:v>
-      </x:c>
       <x:c r="J16" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K16" s="1" t="s">
         <x:v>2</x:v>
@@ -2343,113 +2361,113 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="29" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B17" s="28" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C17" s="27" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D17" s="27" t="s">
-        <x:v>192</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E17" s="27" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F17" s="27" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G17" s="27"/>
       <x:c r="H17" s="27" t="s">
-        <x:v>176</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I17" s="27" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J17" s="27" t="s">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K17" s="27" t="s">
-        <x:v>157</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11" customHeight="1">
       <x:c r="A18" s="30" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B18" s="28" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C18" s="27" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D18" s="27" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E18" s="27"/>
       <x:c r="F18" s="27" t="s">
-        <x:v>191</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G18" s="27"/>
       <x:c r="H18" s="27" t="s">
-        <x:v>160</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I18" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J18" s="27" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K18" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="30"/>
       <x:c r="B19" s="28" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D19" s="27" t="s">
-        <x:v>202</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E19" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F19" s="27"/>
       <x:c r="G19" s="27" t="s">
-        <x:v>200</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H19" s="27" t="s">
-        <x:v>162</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I19" s="27"/>
       <x:c r="J19" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K19" s="27" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:11" ht="32.75" customHeight="1">
       <x:c r="A20" s="30" t="s">
-        <x:v>203</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B20" s="28" t="s">
-        <x:v>197</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C20" s="27" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D20" s="27" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E20" s="27"/>
       <x:c r="F20" s="27" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G20" s="27"/>
       <x:c r="H20" s="31" t="s">
@@ -2462,29 +2480,29 @@
     <x:row r="21" spans="1:11">
       <x:c r="A21" s="30"/>
       <x:c r="B21" s="28" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C21" s="27" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D21" s="27" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E21" s="27" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="D21" s="27" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="E21" s="27" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="F21" s="27"/>
       <x:c r="G21" s="27" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I21" s="32" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J21" s="31" t="s">
-        <x:v>198</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="K21" s="27" t="s">
         <x:v>11</x:v>
@@ -2493,29 +2511,29 @@
     <x:row r="22" spans="1:11">
       <x:c r="A22" s="30"/>
       <x:c r="B22" s="28" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C22" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D22" s="27" t="s">
-        <x:v>194</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E22" s="27" t="s">
-        <x:v>156</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F22" s="27"/>
       <x:c r="G22" s="27" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H22" s="31" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I22" s="32" t="s">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J22" s="31" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K22" s="27" t="s">
         <x:v>13</x:v>
@@ -2524,29 +2542,29 @@
     <x:row r="23" spans="1:11">
       <x:c r="A23" s="30"/>
       <x:c r="B23" s="28" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C23" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D23" s="27" t="s">
-        <x:v>195</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E23" s="27" t="s">
-        <x:v>201</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F23" s="27"/>
       <x:c r="G23" s="27" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H23" s="31" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I23" s="32" t="s">
-        <x:v>190</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J23" s="31" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K23" s="27" t="s">
         <x:v>10</x:v>
@@ -2554,207 +2572,245 @@
     </x:row>
     <x:row r="24" spans="1:11" customHeight="1">
       <x:c r="A24" s="33" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B24" s="28" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C24" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D24" s="27" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E24" s="27"/>
       <x:c r="F24" s="27" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G24" s="27"/>
       <x:c r="H24" s="27" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I24" s="27"/>
       <x:c r="J24" s="34" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K24" s="27" t="s">
-        <x:v>163</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
       <x:c r="A25" s="33"/>
       <x:c r="B25" s="28" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C25" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D25" s="27" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E25" s="27" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F25" s="27"/>
       <x:c r="G25" s="27" t="s">
-        <x:v>205</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H25" s="27" t="s">
-        <x:v>164</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I25" s="27" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J25" s="34" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K25" s="27" t="s">
-        <x:v>165</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:11" customFormat="1">
       <x:c r="A26" s="33"/>
       <x:c r="B26" s="28" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C26" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D26" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E26" s="27"/>
       <x:c r="F26" s="27" t="s">
-        <x:v>196</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G26" s="27" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H26" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="27"/>
       <x:c r="J26" s="27" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="K26" s="27" t="s">
-        <x:v>207</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
       <x:c r="A27" s="33"/>
       <x:c r="B27" s="28" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C27" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D27" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E27" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F27" s="27"/>
       <x:c r="G27" s="27" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H27" s="27" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="I27" s="27" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J27" s="27" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="I27" s="27" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J27" s="27" t="s">
-        <x:v>199</x:v>
-      </x:c>
       <x:c r="K27" s="27" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:11" customFormat="1">
       <x:c r="A28" s="33"/>
       <x:c r="B28" s="28" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C28" s="27" t="s">
-        <x:v>178</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D28" s="27" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E28" s="27"/>
       <x:c r="F28" s="27" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G28" s="27"/>
       <x:c r="H28" s="27" t="s">
-        <x:v>171</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="I28" s="27"/>
       <x:c r="J28" s="27" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="K28" s="27" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11" customFormat="1">
+      <x:c r="A29" s="33"/>
+      <x:c r="B29" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C29" s="27" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D29" s="27" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E29" s="31" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F29" s="31" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G29" s="31"/>
+      <x:c r="H29" s="27"/>
+      <x:c r="I29" s="27"/>
+      <x:c r="J29" s="27"/>
+      <x:c r="K29" s="27"/>
+    </x:row>
+    <x:row r="30" spans="1:11" customFormat="1">
+      <x:c r="A30" s="33"/>
+      <x:c r="B30" s="28" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C30" s="27" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D30" s="27" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E30" s="27"/>
+      <x:c r="F30" s="27"/>
+      <x:c r="G30" s="27"/>
+      <x:c r="H30" s="27" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="I30" s="27"/>
+      <x:c r="J30" s="27" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="K28" s="27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:11">
-      <x:c r="A29" s="29" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B29" s="28" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C29" s="27" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="D29" s="27" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E29" s="27"/>
-      <x:c r="F29" s="27" t="s">
+      <x:c r="K30" s="27" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="29" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B31" s="28" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C31" s="27" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D31" s="27" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E31" s="27"/>
+      <x:c r="F31" s="27" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G31" s="27" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="G29" s="27" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H29" s="27" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="I29" s="31"/>
-      <x:c r="J29" s="27" t="s">
+      <x:c r="H31" s="27" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="I31" s="31"/>
+      <x:c r="J31" s="27" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K29" s="27" t="s">
+      <x:c r="K31" s="27" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="2:4">
-      <x:c r="B35" s="25"/>
-      <x:c r="C35" s="1"/>
-      <x:c r="D35" s="1"/>
-    </x:row>
-    <x:row r="36" spans="2:4">
-      <x:c r="B36" s="25"/>
-      <x:c r="C36" s="1"/>
-      <x:c r="D36" s="1"/>
-    </x:row>
-    <x:row r="37" spans="2:5">
+    <x:row r="37" spans="2:4">
       <x:c r="B37" s="25"/>
       <x:c r="C37" s="1"/>
       <x:c r="D37" s="1"/>
-      <x:c r="E37" s="1"/>
     </x:row>
     <x:row r="38" spans="2:4">
       <x:c r="B38" s="25"/>
       <x:c r="C38" s="1"/>
       <x:c r="D38" s="1"/>
     </x:row>
-    <x:row r="39" spans="2:4">
+    <x:row r="39" spans="2:5">
       <x:c r="B39" s="25"/>
       <x:c r="C39" s="1"/>
       <x:c r="D39" s="1"/>
+      <x:c r="E39" s="1"/>
     </x:row>
     <x:row r="40" spans="2:4">
       <x:c r="B40" s="25"/>
@@ -2765,6 +2821,16 @@
       <x:c r="B41" s="25"/>
       <x:c r="C41" s="1"/>
       <x:c r="D41" s="1"/>
+    </x:row>
+    <x:row r="42" spans="2:4">
+      <x:c r="B42" s="25"/>
+      <x:c r="C42" s="1"/>
+      <x:c r="D42" s="1"/>
+    </x:row>
+    <x:row r="43" spans="2:4">
+      <x:c r="B43" s="25"/>
+      <x:c r="C43" s="1"/>
+      <x:c r="D43" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2772,7 +2838,7 @@
     <x:mergeCell ref="A9:A16"/>
     <x:mergeCell ref="A18:A19"/>
     <x:mergeCell ref="A20:A23"/>
-    <x:mergeCell ref="A24:A28"/>
+    <x:mergeCell ref="A24:A30"/>
   </x:mergeCells>
   <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2806,61 +2872,61 @@
   <x:sheetData>
     <x:row r="1" spans="1:12">
       <x:c r="A1" s="3" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D1" s="5" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="H1" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="L1" s="4" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="E1" s="5" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="F1" s="5" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G1" s="5" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="H1" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="J1" s="5" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="L1" s="4" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="A2" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D2" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E2" s="8"/>
       <x:c r="F2" s="8"/>
       <x:c r="G2" s="8"/>
       <x:c r="H2" s="1"/>
       <x:c r="I2" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J2" s="1">
         <x:v>8</x:v>
@@ -2875,20 +2941,20 @@
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="15"/>
       <x:c r="B3" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D3" s="8"/>
       <x:c r="E3" s="8"/>
       <x:c r="F3" s="9" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G3" s="8"/>
       <x:c r="H3" s="1"/>
       <x:c r="I3" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="J3" s="1">
         <x:v>40</x:v>
@@ -2897,16 +2963,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="15"/>
       <x:c r="B4" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D4" s="8"/>
       <x:c r="E4" s="8"/>
@@ -2914,7 +2980,7 @@
       <x:c r="G4" s="8"/>
       <x:c r="H4" s="1"/>
       <x:c r="I4" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="J4" s="1">
         <x:v>10</x:v>
@@ -2923,26 +2989,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="15"/>
       <x:c r="B5" s="10" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C5" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D5" s="8"/>
       <x:c r="E5" s="8"/>
       <x:c r="F5" s="8"/>
       <x:c r="G5" s="8"/>
       <x:c r="H5" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="J5" s="1">
         <x:v>30</x:v>
@@ -2955,22 +3021,22 @@
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="15"/>
       <x:c r="B6" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D6" s="12"/>
       <x:c r="E6" s="12"/>
       <x:c r="F6" s="12"/>
       <x:c r="G6" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J6" s="1"/>
       <x:c r="K6" s="1">
@@ -2981,22 +3047,22 @@
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="16"/>
       <x:c r="B7" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" s="12"/>
       <x:c r="E7" s="12"/>
       <x:c r="F7" s="12"/>
       <x:c r="G7" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H7" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J7" s="1"/>
       <x:c r="K7" s="1">
